--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CF45BB-C612-4A86-AE63-B0C9A000EABF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288DA868-7132-446D-97D2-84C911889F17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="3615" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Nr.</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Fehlerbhebung bei/nach Rollout</t>
+  </si>
+  <si>
+    <t>Berechtigungskonzept erstellen</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,26 +602,27 @@
       <c r="E5" s="3"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -628,36 +632,36 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -667,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -680,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>30</v>
@@ -693,9 +697,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
@@ -704,11 +710,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
@@ -717,10 +721,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -730,9 +734,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
@@ -741,7 +747,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
@@ -752,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="3"/>
@@ -763,11 +769,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288DA868-7132-446D-97D2-84C911889F17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB7ADA5-8BCD-4809-8196-FE636BFC2BF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="3615" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Nr.</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>Berechtigungskonzept erstellen</t>
+  </si>
+  <si>
+    <t>Product-Backlog anlegen</t>
+  </si>
+  <si>
+    <t>Sprint-Planning durchführen</t>
+  </si>
+  <si>
+    <t>Refinement durchführen</t>
+  </si>
+  <si>
+    <t>Sprint-Review &amp; Retrospektive durchführen</t>
   </si>
 </sst>
 </file>
@@ -519,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,105 +626,103 @@
       <c r="E6" s="3"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C9" s="8"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
@@ -721,10 +731,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -734,10 +744,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -747,9 +757,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
@@ -758,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="3"/>
@@ -769,9 +781,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
@@ -780,11 +794,57 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,13 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB7ADA5-8BCD-4809-8196-FE636BFC2BF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73181A2C-E22C-4FEB-8A01-A8C71DEA3E47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$E$1:$E$24</definedName>
+  </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Nr.</t>
   </si>
@@ -156,6 +160,18 @@
   </si>
   <si>
     <t>Sprint-Review &amp; Retrospektive durchführen</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Leon Kuß</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Gerrit</t>
   </si>
 </sst>
 </file>
@@ -225,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -239,17 +255,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,20 +555,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" customWidth="1"/>
+    <col min="4" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -563,291 +586,353 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="E3" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="10"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="10"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="10"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="10"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="10"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="10"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="E11" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="E12" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="E18" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="E19" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="E22" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="E23" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E24" xr:uid="{C495B11D-1803-4F1E-B9B8-31A32C2CE10F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A060E7B0-5777-41B1-A45F-B54A6EB223EB}">
+          <x14:formula1>
+            <xm:f>Tabelle2!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E24</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A5CC69-8284-43C8-9C08-8953B8706427}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73181A2C-E22C-4FEB-8A01-A8C71DEA3E47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A3A58F-D325-4EFF-B94F-41F3AC9D91BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Nr.</t>
   </si>
@@ -556,8 +556,8 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +597,9 @@
         <v>22</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -660,7 +662,9 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -740,7 +744,9 @@
         <v>27</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -833,7 +839,9 @@
         <v>25</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
@@ -844,7 +852,9 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A3A58F-D325-4EFF-B94F-41F3AC9D91BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26597BE-EDEE-4A68-889A-9ADB43AC4417}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Nr.</t>
   </si>
@@ -556,8 +556,8 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,7 +745,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
@@ -772,7 +772,9 @@
         <v>29</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -785,7 +787,9 @@
         <v>30</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6">

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26597BE-EDEE-4A68-889A-9ADB43AC4417}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25635387-5768-4532-AB74-37D3A9922F35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,17 +92,7 @@
     <t>Umfang/Inhalt (enthält Alt-APs)</t>
   </si>
   <si>
-    <t>Alt-Code analysieren
-Dokumentation analysieren</t>
-  </si>
-  <si>
-    <t>(alt) Anforderungserhebung</t>
-  </si>
-  <si>
     <t>Prozesse implementieren</t>
-  </si>
-  <si>
-    <t>(alt) Ausarbeitung des Schulungskonzepts</t>
   </si>
   <si>
     <t>(alt) Die Datenbanken aufsetzen Schnittstelle bereitstellen
@@ -172,6 +162,20 @@
   </si>
   <si>
     <t>Gerrit</t>
+  </si>
+  <si>
+    <t>Alt-Code analysieren
+Dokumentation analysieren
+Ist-Stand erfassen</t>
+  </si>
+  <si>
+    <t>Arbeitspakete eingepflegen 
+Arbeitspakete müssen in einzelne Aufgaben unterteilt werden. 
+Abhängigkeiten zwischen Aufgaben und Arbeitspaketen ausarbeiten</t>
+  </si>
+  <si>
+    <t>(alt) Ausarbeitung des Schulungskonzepts
+Liste neuer Features erstellen</t>
   </si>
 </sst>
 </file>
@@ -556,8 +560,8 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -594,11 +598,11 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -608,12 +612,10 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="4"/>
       <c r="E3" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -635,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="10"/>
@@ -646,24 +648,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="3"/>
       <c r="E6" s="10"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -672,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="3"/>
@@ -684,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="3"/>
@@ -696,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="3"/>
@@ -711,11 +715,11 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
@@ -723,14 +727,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -741,11 +745,11 @@
         <v>10</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
@@ -756,7 +760,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="10"/>
@@ -769,11 +773,11 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -784,11 +788,11 @@
         <v>12</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -799,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="10"/>
@@ -814,7 +818,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="3"/>
       <c r="E18" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -825,26 +829,26 @@
         <v>15</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>25</v>
+      <c r="C20" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -857,7 +861,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="3"/>
       <c r="E21" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -870,7 +874,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="3"/>
       <c r="E22" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -883,7 +887,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="3"/>
       <c r="E23" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -928,22 +932,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB7ADA5-8BCD-4809-8196-FE636BFC2BF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6C2C95-263F-4C70-8139-273CE0371CAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25635387-5768-4532-AB74-37D3A9922F35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C3FDE5-099C-4705-B166-5592621B5CB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$E$1:$E$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$D$1:$E$24</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Nr.</t>
   </si>
@@ -176,6 +176,9 @@
   <si>
     <t>(alt) Ausarbeitung des Schulungskonzepts
 Liste neuer Features erstellen</t>
+  </si>
+  <si>
+    <t>erledigt</t>
   </si>
 </sst>
 </file>
@@ -245,18 +248,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -277,11 +274,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -557,11 +565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,11 +577,12 @@
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
     <col min="3" max="3" width="55.88671875" customWidth="1"/>
-    <col min="4" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,333 +593,344 @@
         <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="10" t="s">
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="E7" s="8"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="10" t="s">
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="10"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="10"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="10" t="s">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="10"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="10"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="10"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="10"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E24" xr:uid="{C495B11D-1803-4F1E-B9B8-31A32C2CE10F}"/>
+  <autoFilter ref="D1:E24" xr:uid="{61AB85FC-821D-4D40-8096-2A761A4B4714}"/>
+  <conditionalFormatting sqref="E2:E24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A060E7B0-5777-41B1-A45F-B54A6EB223EB}">
           <x14:formula1>
             <xm:f>Tabelle2!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{C1A23EF4-F9F7-4957-AB4A-49026BF45741}">
+          <x14:formula1>
+            <xm:f>Tabelle2!$C$1:$C$2</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E24</xm:sqref>
         </x14:dataValidation>
@@ -922,30 +942,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A5CC69-8284-43C8-9C08-8953B8706427}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C3FDE5-099C-4705-B166-5592621B5CB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0772F8D2-282D-4025-8794-4785603FED13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,26 +256,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,13 +569,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
@@ -600,315 +600,315 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="6"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:E24" xr:uid="{61AB85FC-821D-4D40-8096-2A761A4B4714}"/>

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0772F8D2-282D-4025-8794-4785603FED13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858B19D-A5FB-4CD9-BF8D-7B7F63BEC4BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,14 +569,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.88671875" customWidth="1"/>
+    <col min="3" max="3" width="76.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
@@ -664,7 +664,7 @@
       <c r="E6" s="6"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -731,7 +731,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -746,7 +746,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858B19D-A5FB-4CD9-BF8D-7B7F63BEC4BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDD22C9-46B7-4C8B-804A-3C7D0F7CABD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.6640625" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDD22C9-46B7-4C8B-804A-3C7D0F7CABD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262DBD79-C10F-4954-8AAB-103DC2533D4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8592" yWindow="3552" windowWidth="17340" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -244,11 +244,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -276,6 +302,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,8 +600,8 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +763,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -746,7 +778,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -880,7 +912,7 @@
       <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
@@ -893,7 +925,7 @@
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="6" t="s">
         <v>36</v>
       </c>
@@ -912,6 +944,9 @@
     </row>
   </sheetData>
   <autoFilter ref="D1:E24" xr:uid="{61AB85FC-821D-4D40-8096-2A761A4B4714}"/>
+  <mergeCells count="1">
+    <mergeCell ref="C22:C23"/>
+  </mergeCells>
   <conditionalFormatting sqref="E2:E24">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"erledigt"</formula>

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262DBD79-C10F-4954-8AAB-103DC2533D4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C606C0-BCC3-46B0-9D16-C857EDCEEA5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8592" yWindow="3552" windowWidth="17340" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$D$1:$E$24</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>Nr.</t>
   </si>
@@ -103,11 +103,6 @@
 Übertragung von Alt-Inhalten</t>
   </si>
   <si>
-    <t>(alt) Implementation der intelligenten Suchfunktion + FAQ-Bereich erstellen
-(alt) Impelementierung des Video- und Texttutorialtools
-(alt) Einpflegen von Videos und Texten in den Tutorial Bereich in Zusammenarbeit mit dem Arbeitnehmern und dem Auftraggeber</t>
-  </si>
-  <si>
     <t>(alt) Implementierung des internen Bestellprozesses von Betriebsmitteln
 (alt) Implementation der Urlaubsbeantragung
 (alt) Implementierung des persönlichen Bereichs für Dokumente (Self-Service-Bereich)
@@ -118,6 +113,58 @@
   </si>
   <si>
     <t>(alt) Test</t>
+  </si>
+  <si>
+    <t>(alt) Feinkonzeption ausarbeiten
+(alt) Beschaffung neuer Hardware</t>
+  </si>
+  <si>
+    <t>Fehlerbhebung bei/nach Rollout</t>
+  </si>
+  <si>
+    <t>Berechtigungskonzept erstellen</t>
+  </si>
+  <si>
+    <t>Product-Backlog anlegen</t>
+  </si>
+  <si>
+    <t>Sprint-Planning durchführen</t>
+  </si>
+  <si>
+    <t>Refinement durchführen</t>
+  </si>
+  <si>
+    <t>Sprint-Review &amp; Retrospektive durchführen</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Leon Kuß</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Gerrit</t>
+  </si>
+  <si>
+    <t>Arbeitspakete eingepflegen 
+Arbeitspakete müssen in einzelne Aufgaben unterteilt werden. 
+Abhängigkeiten zwischen Aufgaben und Arbeitspaketen ausarbeiten</t>
+  </si>
+  <si>
+    <t>erledigt</t>
+  </si>
+  <si>
+    <t>Aufwand in PT</t>
+  </si>
+  <si>
+    <t>Alt-Code analysieren
+Dokumentation analysieren
+Ist-Stand erfassen
+Mitarbeitergruppen erfassen
+aktuelles Aussehen der Prozesse</t>
   </si>
   <si>
     <t>(alt) Implementation des Forums
@@ -126,59 +173,72 @@
 (alt) Implementation des News-Sliders
 (alt) Implementierung des Schwarzen Bretts
 (alt) Kategorisierung der News
-(alt) Implementation des Meeting-Tools (fällt wahrscheinlich raus)
 (alt) Vorschriften/Regelwerk-Bereich erstellen</t>
   </si>
   <si>
-    <t>(alt) Feinkonzeption ausarbeiten
-(alt) Beschaffung neuer Hardware</t>
-  </si>
-  <si>
-    <t>Fehlerbhebung bei/nach Rollout</t>
-  </si>
-  <si>
-    <t>Berechtigungskonzept erstellen</t>
-  </si>
-  <si>
-    <t>Product-Backlog anlegen</t>
-  </si>
-  <si>
-    <t>Sprint-Planning durchführen</t>
-  </si>
-  <si>
-    <t>Refinement durchführen</t>
-  </si>
-  <si>
-    <t>Sprint-Review &amp; Retrospektive durchführen</t>
-  </si>
-  <si>
-    <t>Robin</t>
-  </si>
-  <si>
-    <t>Leon Kuß</t>
-  </si>
-  <si>
-    <t>Luca</t>
-  </si>
-  <si>
-    <t>Gerrit</t>
-  </si>
-  <si>
-    <t>Alt-Code analysieren
-Dokumentation analysieren
-Ist-Stand erfassen</t>
-  </si>
-  <si>
-    <t>Arbeitspakete eingepflegen 
-Arbeitspakete müssen in einzelne Aufgaben unterteilt werden. 
-Abhängigkeiten zwischen Aufgaben und Arbeitspaketen ausarbeiten</t>
+    <t>(alt) Implementation der intelligenten Suchfunktion + FAQ-Bereich erstellen
+(alt) Impelementierung des Video- und Texttutorialtools</t>
   </si>
   <si>
     <t>(alt) Ausarbeitung des Schulungskonzepts
+(alt) Einpflegen von Videos und Texten in den Tutorial Bereich in Zusammenarbeit mit dem Arbeitnehmern und dem Auftraggeber
 Liste neuer Features erstellen</t>
   </si>
   <si>
-    <t>erledigt</t>
+    <t>10Tage*10%*#Sprints*#Entwickler
+1Tag*#Sprints*#Entwickler</t>
+  </si>
+  <si>
+    <t>10Tage*40%*#Sprints*#Entwickler
+4Tage*#Sprints*#Entwickler</t>
+  </si>
+  <si>
+    <t>10Tage*25%*#Sprints*#Entwickler
+2,5Tage*#Sprints*#Entwickler</t>
+  </si>
+  <si>
+    <t>10Tage*20%*#Sprints*#Entwickler
+2Tage*#Sprints*#Entwickler</t>
+  </si>
+  <si>
+    <t>10Tage*5%*#Sprints*#Entwickler
+0,5Tage*#Sprints*#Entwickler</t>
+  </si>
+  <si>
+    <t>10Tage*#Sprints*#Entwickler*50%
+Gesamtentwicklungszeit*50%</t>
+  </si>
+  <si>
+    <t>(alt) Test
+Testberichte</t>
+  </si>
+  <si>
+    <t>10Tage*#Sprints*#Entwickler*30%
+Gesamtentwicklungszeit*30%</t>
+  </si>
+  <si>
+    <t>1*#Sprint</t>
+  </si>
+  <si>
+    <t>2*#Sprint</t>
+  </si>
+  <si>
+    <t>2*#Sprint*#Schulungskonzeptler</t>
+  </si>
+  <si>
+    <t>0,5Tage*#Sprints</t>
+  </si>
+  <si>
+    <t>2Tage*#Sprints</t>
+  </si>
+  <si>
+    <t>1Tage*#Sprints</t>
+  </si>
+  <si>
+    <t>0,5*#Sprints</t>
+  </si>
+  <si>
+    <t>8*#Entwickler+20</t>
   </si>
 </sst>
 </file>
@@ -208,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -270,11 +330,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -294,20 +363,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -320,6 +395,20 @@
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -600,8 +689,8 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22:C23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +700,8 @@
     <col min="3" max="3" width="59.5546875" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.21875" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -630,8 +720,12 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F1" s="9"/>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -639,12 +733,17 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -655,9 +754,14 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="G3" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -667,8 +771,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -677,11 +786,16 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="G5" s="10">
+        <v>10</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -689,11 +803,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -701,15 +820,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -717,11 +841,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="G8" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -729,11 +858,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="G9" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -741,11 +875,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="G10" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -755,13 +894,18 @@
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="G11" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -770,58 +914,74 @@
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>25</v>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>24</v>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="G13" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="G14" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>26</v>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="G15" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -829,27 +989,37 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="G17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -858,11 +1028,14 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="G18" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -870,29 +1043,35 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="G19" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>42</v>
+      <c r="C20" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="G20" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -901,37 +1080,48 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="G22" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="G23" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -939,14 +1129,16 @@
         <v>20</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="G24" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="D1:E24" xr:uid="{61AB85FC-821D-4D40-8096-2A761A4B4714}"/>
-  <mergeCells count="1">
-    <mergeCell ref="C22:C23"/>
-  </mergeCells>
   <conditionalFormatting sqref="E2:E24">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"erledigt"</formula>
@@ -990,25 +1182,25 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C606C0-BCC3-46B0-9D16-C857EDCEEA5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15207614-6FA8-49B9-95A1-CFDFA8B4ABEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$D$1:$E$24</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>Nr.</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Arbeitspakete eingepflegen 
 Arbeitspakete müssen in einzelne Aufgaben unterteilt werden. 
 Abhängigkeiten zwischen Aufgaben und Arbeitspaketen ausarbeiten</t>
-  </si>
-  <si>
-    <t>erledigt</t>
   </si>
   <si>
     <t>Aufwand in PT</t>
@@ -239,6 +236,12 @@
   </si>
   <si>
     <t>8*#Entwickler+20</t>
+  </si>
+  <si>
+    <t>fertig</t>
+  </si>
+  <si>
+    <t>besprochen</t>
   </si>
 </sst>
 </file>
@@ -388,7 +391,51 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -690,21 +737,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.21875" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -722,10 +769,10 @@
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -733,19 +780,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -757,13 +804,13 @@
         <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G3" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -779,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -798,7 +845,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -815,7 +862,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -829,14 +876,14 @@
         <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G7" s="10">
         <v>2</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -849,11 +896,11 @@
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -866,11 +913,11 @@
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -883,11 +930,11 @@
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -901,13 +948,13 @@
         <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -921,13 +968,13 @@
         <v>34</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -935,17 +982,17 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -953,17 +1000,17 @@
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -978,10 +1025,10 @@
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -995,13 +1042,13 @@
         <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1009,17 +1056,17 @@
         <v>13</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1032,10 +1079,10 @@
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1050,10 +1097,10 @@
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1061,17 +1108,17 @@
         <v>16</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="3"/>
       <c r="G20" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1083,13 +1130,13 @@
         <v>35</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G21" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1102,10 +1149,10 @@
       </c>
       <c r="E22" s="3"/>
       <c r="G22" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1118,10 +1165,10 @@
       </c>
       <c r="E23" s="3"/>
       <c r="G23" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1134,14 +1181,17 @@
       </c>
       <c r="E24" s="3"/>
       <c r="G24" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="D1:E24" xr:uid="{61AB85FC-821D-4D40-8096-2A761A4B4714}"/>
   <conditionalFormatting sqref="E2:E24">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"besprochen"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"erledigt"</formula>
+      <formula>"fertig"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1157,7 +1207,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{C1A23EF4-F9F7-4957-AB4A-49026BF45741}">
           <x14:formula1>
-            <xm:f>Tabelle2!$C$1:$C$2</xm:f>
+            <xm:f>Tabelle2!$C$1:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E24</xm:sqref>
         </x14:dataValidation>
@@ -1175,30 +1225,33 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15207614-6FA8-49B9-95A1-CFDFA8B4ABEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77303799-8A21-4799-ADDE-FD21422B5135}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>Nr.</t>
   </si>
@@ -391,7 +391,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -413,27 +413,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -737,7 +716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +984,9 @@
       <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G14" s="11" t="s">
         <v>47</v>
       </c>
@@ -1077,7 +1058,9 @@
       <c r="D18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G18" s="10" t="s">
         <v>52</v>
       </c>
@@ -1147,7 +1130,9 @@
       <c r="D22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G22" s="10" t="s">
         <v>55</v>
       </c>
@@ -1163,7 +1148,9 @@
       <c r="D23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G23" s="10" t="s">
         <v>56</v>
       </c>

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77303799-8A21-4799-ADDE-FD21422B5135}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D2EBC1-4A5A-48AE-AC3D-9A1B748021AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>Nr.</t>
   </si>
@@ -715,8 +715,8 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1096,9 @@
       <c r="D20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G20" s="10" t="s">
         <v>54</v>
       </c>
@@ -1166,7 +1168,9 @@
       <c r="D24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G24" s="10" t="s">
         <v>57</v>
       </c>

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D2EBC1-4A5A-48AE-AC3D-9A1B748021AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F016591-A66D-4BDD-95A7-B197DEFCBB49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>Nr.</t>
   </si>
@@ -714,23 +714,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -751,7 +751,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -771,7 +771,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -789,7 +789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -800,12 +800,14 @@
       <c r="D4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G4" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -824,7 +826,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -841,7 +843,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -862,7 +864,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -879,7 +881,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -896,7 +898,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -913,7 +915,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -933,7 +935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -953,7 +955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -971,7 +973,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -991,7 +993,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1009,7 +1011,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1029,7 +1031,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1047,7 +1049,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1065,7 +1067,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1078,12 +1080,14 @@
       <c r="D19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G19" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1103,7 +1107,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1121,7 +1125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1139,7 +1143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1216,17 +1220,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F016591-A66D-4BDD-95A7-B197DEFCBB49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EE3FCD-A47C-47D5-8982-BFCD669A5B5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24840" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>Nr.</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>besprochen</t>
+  </si>
+  <si>
+    <t>Projektmanagement durchführen</t>
   </si>
 </sst>
 </file>
@@ -271,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -342,11 +345,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -386,6 +400,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,25 +729,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -751,7 +768,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -771,7 +788,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -789,7 +806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -801,13 +818,13 @@
         <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -820,13 +837,15 @@
       <c r="D5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G5" s="10">
         <v>10</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -837,13 +856,15 @@
       <c r="D6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G6" s="10">
         <v>3</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -864,7 +885,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -875,13 +896,15 @@
       <c r="D8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G8" s="10" t="s">
         <v>58</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -892,13 +915,15 @@
       <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G9" s="10" t="s">
         <v>58</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -909,13 +934,15 @@
       <c r="D10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G10" s="10" t="s">
         <v>58</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -935,7 +962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -955,7 +982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -968,12 +995,14 @@
       <c r="D13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G13" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -987,13 +1016,13 @@
         <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1006,12 +1035,14 @@
       <c r="D15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G15" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1031,7 +1062,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1044,12 +1075,14 @@
       <c r="D17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1061,13 +1094,13 @@
         <v>34</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1081,13 +1114,13 @@
         <v>34</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1101,13 +1134,13 @@
         <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1125,7 +1158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1137,13 +1170,13 @@
         <v>34</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1155,13 +1188,13 @@
         <v>34</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1173,10 +1206,15 @@
         <v>35</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1220,17 +1258,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1238,7 +1276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1246,7 +1284,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>

--- a/Arbeitspakete_Liste_NEU.xlsx
+++ b/Arbeitspakete_Liste_NEU.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EE3FCD-A47C-47D5-8982-BFCD669A5B5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9248FC4-5242-4552-9C07-05EC5F6E6C22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24840" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t>Nr.</t>
   </si>
@@ -732,22 +732,22 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -768,7 +768,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -788,7 +788,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -806,7 +806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -845,7 +845,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -864,7 +864,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -885,7 +885,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -904,7 +904,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -923,7 +923,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -942,7 +942,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -962,7 +962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -982,7 +982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1212,14 +1212,20 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>62</v>
       </c>
+      <c r="D25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="D1:E24" xr:uid="{61AB85FC-821D-4D40-8096-2A761A4B4714}"/>
-  <conditionalFormatting sqref="E2:E24">
+  <conditionalFormatting sqref="E2:E25">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"besprochen"</formula>
     </cfRule>
@@ -1258,17 +1264,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1284,7 +1290,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
